--- a/Sprint Backlog 1.xlsx
+++ b/Sprint Backlog 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Skapa desktop och stilla det med CSS</t>
   </si>
   <si>
-    <t>Inte påbörjad</t>
-  </si>
-  <si>
     <t>Som användare vill jag kunna klicka på en ikon och få upp ett nytt fönster</t>
   </si>
   <si>
@@ -71,6 +68,12 @@
   </si>
   <si>
     <t>Tider</t>
+  </si>
+  <si>
+    <t>Klar</t>
+  </si>
+  <si>
+    <t>Håller på</t>
   </si>
 </sst>
 </file>
@@ -271,7 +274,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -347,11 +350,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="134600192"/>
-        <c:axId val="94916544"/>
+        <c:axId val="130401280"/>
+        <c:axId val="90394560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134600192"/>
+        <c:axId val="130401280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -360,7 +363,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94916544"/>
+        <c:crossAx val="90394560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -368,7 +371,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94916544"/>
+        <c:axId val="90394560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -394,7 +397,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134600192"/>
+        <c:crossAx val="130401280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -736,7 +739,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -752,7 +755,7 @@
     <col min="10" max="10" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -766,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -795,7 +798,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2">
@@ -819,20 +822,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3">
         <v>6</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -849,13 +852,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4">
@@ -880,13 +883,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>13</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -901,7 +904,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7">
         <v>13</v>

--- a/Sprint Backlog 1.xlsx
+++ b/Sprint Backlog 1.xlsx
@@ -111,7 +111,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,6 +154,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -167,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -188,6 +194,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -277,7 +286,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -350,11 +359,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="130401280"/>
-        <c:axId val="90394560"/>
+        <c:axId val="124371968"/>
+        <c:axId val="84365248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="130401280"/>
+        <c:axId val="124371968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -363,7 +372,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90394560"/>
+        <c:crossAx val="84365248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -371,7 +380,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90394560"/>
+        <c:axId val="84365248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -397,7 +406,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130401280"/>
+        <c:crossAx val="124371968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -736,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -838,7 +847,7 @@
         <v>4</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -892,7 +901,7 @@
         <v>4</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -921,6 +930,9 @@
       <c r="J7">
         <v>0</v>
       </c>
+    </row>
+    <row r="13" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sprint Backlog 1.xlsx
+++ b/Sprint Backlog 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>Klar</t>
-  </si>
-  <si>
-    <t>Håller på</t>
   </si>
 </sst>
 </file>
@@ -289,7 +286,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -359,11 +356,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="124371968"/>
-        <c:axId val="84365248"/>
+        <c:axId val="126862336"/>
+        <c:axId val="84692928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="124371968"/>
+        <c:axId val="126862336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -372,7 +369,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84365248"/>
+        <c:crossAx val="84692928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -380,7 +377,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84365248"/>
+        <c:axId val="84692928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -406,7 +403,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124371968"/>
+        <c:crossAx val="126862336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -748,7 +745,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -837,7 +834,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3">
@@ -850,7 +847,7 @@
         <v>3</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -904,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>

--- a/Sprint Backlog 1.xlsx
+++ b/Sprint Backlog 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -71,13 +71,25 @@
   </si>
   <si>
     <t>Klar</t>
+  </si>
+  <si>
+    <t>Sprint Review</t>
+  </si>
+  <si>
+    <t>Sprint Retrospective</t>
+  </si>
+  <si>
+    <t>Inga förändringar</t>
+  </si>
+  <si>
+    <t>Funkar som förväntat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -107,8 +119,21 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +182,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -170,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -194,6 +225,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -356,11 +393,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="126862336"/>
-        <c:axId val="84692928"/>
+        <c:axId val="121684992"/>
+        <c:axId val="81022912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126862336"/>
+        <c:axId val="121684992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -369,7 +406,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84692928"/>
+        <c:crossAx val="81022912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -377,7 +414,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84692928"/>
+        <c:axId val="81022912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -403,7 +440,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126862336"/>
+        <c:crossAx val="121684992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -745,7 +782,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -759,6 +796,7 @@
     <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" customWidth="1"/>
     <col min="10" max="10" width="7.7109375" customWidth="1"/>
+    <col min="12" max="12" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -792,6 +830,12 @@
       <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="K1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
@@ -822,6 +866,12 @@
       <c r="J2">
         <v>0</v>
       </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -852,6 +902,12 @@
       <c r="J3">
         <v>0</v>
       </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -881,6 +937,12 @@
       </c>
       <c r="J4">
         <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -933,6 +995,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>